--- a/config/optimization_engine/ml_models/process_b-example-input-model.xlsx
+++ b/config/optimization_engine/ml_models/process_b-example-input-model.xlsx
@@ -460,16 +460,16 @@
         <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>2.098962200631701</v>
+        <v>104.017544327471</v>
       </c>
       <c r="C2" t="n">
-        <v>8.667837125922574</v>
+        <v>1.327233191755586</v>
       </c>
       <c r="D2" t="n">
-        <v>9.15073542794908</v>
+        <v>3.231523654476329</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5925666082614112</v>
+        <v>9.260013067703733</v>
       </c>
     </row>
   </sheetData>
